--- a/assignment/Paper/event-deps.xlsx
+++ b/assignment/Paper/event-deps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shabn\OneDrive\Documents\distributed-database-transactions\assignment\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shabn\OneDrive\Documents\Zurich\University\Resesarch\distributed-database-transactions\assignment\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25E7DAE-9A64-4380-B511-DD8CA05AEEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A22015-D57A-45F3-8700-995470A9DA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
-  <si>
-    <t>read_invoke</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>read_done</t>
-  </si>
-  <si>
-    <t>write_invoke</t>
-  </si>
-  <si>
-    <t>write_commit</t>
-  </si>
-  <si>
-    <t>write_done</t>
-  </si>
-  <si>
-    <t>register_read</t>
-  </si>
-  <si>
-    <t>prepare_write</t>
-  </si>
-  <si>
-    <t>commit_write</t>
-  </si>
-  <si>
-    <t>event names</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>RegR k1</t>
   </si>
@@ -148,6 +118,57 @@
   </si>
   <si>
     <t>PrepW k4 p4'</t>
+  </si>
+  <si>
+    <t>wc2</t>
+  </si>
+  <si>
+    <t>wc1</t>
+  </si>
+  <si>
+    <t>cw2k</t>
+  </si>
+  <si>
+    <t>pw1k</t>
+  </si>
+  <si>
+    <t>cts1 &lt; cts2</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*:k ∉ dom kv_map ?</t>
   </si>
 </sst>
 </file>
@@ -214,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,26 +271,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -285,27 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +297,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,6 +325,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8C71"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -598,308 +604,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="3"/>
-    <col min="2" max="16384" width="14.7265625" style="1"/>
+    <col min="1" max="1" width="4.1796875" style="3" customWidth="1"/>
+    <col min="2" max="10" width="4.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.90625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I11" s="8"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="P19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="U19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="20" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="3"/>
+      <c r="O21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="S25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="2" t="s">
+    </row>
+    <row r="26" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="3"/>
+      <c r="N29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="3"/>
+      <c r="N30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="31" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="3"/>
+      <c r="N31" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="36" spans="13:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="13" t="s">
-        <v>34</v>
+      <c r="Q36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/assignment/Paper/event-deps.xlsx
+++ b/assignment/Paper/event-deps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shabn\OneDrive\Documents\Zurich\University\Resesarch\distributed-database-transactions\assignment\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A22015-D57A-45F3-8700-995470A9DA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18CFEB5-2499-4FE1-B247-6220940EC00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5520" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>RegR k1</t>
   </si>
@@ -235,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,24 +258,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,25 +285,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,217 +588,233 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="3" customWidth="1"/>
-    <col min="2" max="10" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.7265625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="10" width="4.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12">
-        <v>2</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
-        <v>2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>2</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
         <v>31</v>
       </c>
@@ -834,19 +831,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L17" s="3" t="s">
         <v>6</v>
       </c>
@@ -875,10 +875,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L19" s="3" t="s">
         <v>7</v>
       </c>
@@ -910,10 +910,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L21" s="3"/>
       <c r="O21" s="4" t="s">
         <v>13</v>
@@ -937,16 +937,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L25" s="2" t="s">
         <v>13</v>
       </c>
@@ -969,37 +969,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L29" s="3"/>
       <c r="N29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L30" s="3"/>
       <c r="N30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L31" s="3"/>
       <c r="N31" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="12:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L32" s="3"/>
     </row>
-    <row r="36" spans="13:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="13:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M36" s="1" t="s">
         <v>16</v>
       </c>
